--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -540,10 +540,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N2">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O2">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P2">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q2">
-        <v>104.28392240466</v>
+        <v>75.48767133756499</v>
       </c>
       <c r="R2">
-        <v>938.55530164194</v>
+        <v>679.389042038085</v>
       </c>
       <c r="S2">
-        <v>0.9476711221560263</v>
+        <v>0.9155980876754868</v>
       </c>
       <c r="T2">
-        <v>0.9476711221560264</v>
+        <v>0.9155980876754869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q3">
         <v>3.201247561503333</v>
@@ -632,10 +632,10 @@
         <v>28.81122805353</v>
       </c>
       <c r="S3">
-        <v>0.02909106024164606</v>
+        <v>0.03882827610857408</v>
       </c>
       <c r="T3">
-        <v>0.02909106024164606</v>
+        <v>0.03882827610857408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N4">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O4">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P4">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q4">
-        <v>1.693030709935</v>
+        <v>1.916310298975</v>
       </c>
       <c r="R4">
-        <v>15.237276389415</v>
+        <v>17.246792690775</v>
       </c>
       <c r="S4">
-        <v>0.01538527009468355</v>
+        <v>0.0232431337998</v>
       </c>
       <c r="T4">
-        <v>0.01538527009468355</v>
+        <v>0.0232431337998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H5">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I5">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J5">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N5">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O5">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P5">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q5">
-        <v>0.825375757312</v>
+        <v>1.724179419894</v>
       </c>
       <c r="R5">
-        <v>7.428381815808001</v>
+        <v>15.517614779046</v>
       </c>
       <c r="S5">
-        <v>0.007500530782655818</v>
+        <v>0.02091275769529254</v>
       </c>
       <c r="T5">
-        <v>0.00750053078265582</v>
+        <v>0.02091275769529255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H6">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I6">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J6">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.277978</v>
       </c>
       <c r="O6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q6">
-        <v>0.02533690783288889</v>
+        <v>0.073118233292</v>
       </c>
       <c r="R6">
-        <v>0.228032170496</v>
+        <v>0.6580640996280001</v>
       </c>
       <c r="S6">
-        <v>0.0002302469577696348</v>
+        <v>0.0008868589186834601</v>
       </c>
       <c r="T6">
-        <v>0.0002302469577696349</v>
+        <v>0.0008868589186834602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N7">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O7">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P7">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q7">
-        <v>0.01339982685866667</v>
+        <v>0.04376956820999999</v>
       </c>
       <c r="R7">
-        <v>0.120598441728</v>
+        <v>0.39392611389</v>
       </c>
       <c r="S7">
-        <v>0.0001217697672185147</v>
+        <v>0.0005308858021629693</v>
       </c>
       <c r="T7">
-        <v>0.0001217697672185148</v>
+        <v>0.0005308858021629694</v>
       </c>
     </row>
   </sheetData>
